--- a/src/test/resources/test-data/testdata.xlsx
+++ b/src/test/resources/test-data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\NEU\courses\INFO6255_software_quality_control_and_managment\Selenium Assignment\selenium-test\src\test\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00895834-C2BB-4846-9496-1D7C6C6CCB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012DC269-00CE-4558-9C3F-1E48AB322103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="4030" windowWidth="19200" windowHeight="11250" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Step</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,18 +157,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add to My Calendar' button is displayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unexpected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add to My Calendar' button is not displayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://onesearch.library.northeastern.edu/discovery/search?vid=01NEU_INST:NU&amp;lang=en</t>
   </si>
   <si>
@@ -203,6 +195,30 @@
   </si>
   <si>
     <t>//article[1]//div[1]//div[1]//div[1]//div[1]//div[1]//a[1]</t>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successful download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unexpected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Add to My Calendar' button is displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Add to My Calendar' button is not displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -567,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -636,18 +652,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83FFCDD-6910-40BF-B0B4-753E019CC00B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,18 +673,30 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +710,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="G2:I2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -726,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -750,7 +780,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,7 +943,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +958,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -950,10 +980,10 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,13 +994,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
